--- a/biology/Zoologie/Crocodile_des_marais/Crocodile_des_marais.xlsx
+++ b/biology/Zoologie/Crocodile_des_marais/Crocodile_des_marais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crocodylus palustris
-Crocodylus palustris, le Crocodile des marais, est une espèce de crocodiliens de la famille des Crocodylidae[1].
+Crocodylus palustris, le Crocodile des marais, est une espèce de crocodiliens de la famille des Crocodylidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peut atteindre les 4 à 5 mètres de long.
 			Crocodile des marais
@@ -548,9 +562,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Iran, au Pakistan, en Inde, au Népal, au Bangladesh et au Sri Lanka[1]. Sa présence en Asie du Sud-Est est incertaine.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Iran, au Pakistan, en Inde, au Népal, au Bangladesh et au Sri Lanka. Sa présence en Asie du Sud-Est est incertaine.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente les eaux douces et s'est bien adapté aux ouvrages humains comme les retenues d'eau artificielles ou les canaux d'irrigation. Il est capable de s'aventurer à terre sur plusieurs kilomètres afin de trouver un habitat convenable.
 </t>
@@ -610,7 +628,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les populations actuelles sont faibles : 5 000 à 10 000 individus. Les plus larges populations se trouvent au Sri Lanka avec 2 000 individus et en Inde avec des effectifs estimés de 3 000 à 5 000 individus. Mais les populations y sont très fragmentées en une cinquantaine de petites populations.
 Des programmes de conservation ont été mis en place, notamment en Inde, incluant des programmes d'élevage et de réintroduction dans des zones protégées telles la Madras Crocodile Bank Trust. Mais le nombre des animaux en élevage est aujourd'hui supérieur à ce qui pourrait être relâché dans la nature, situation résultant de la destruction de ses habitats traditionnels. De plus, la population locale est opposée à ces réintroductions car elle considère l'animal comme dangereux. Les programmes de conservation dans d'autres pays, comme au Pakistan, semblent mieux engagés.
@@ -642,7 +662,9 @@
           <t>Fermes d'élevage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'élevage conduit par Romulus Whitaker, le Madras Crocodile Bank Trust, est aujourd'hui une référence mondiale en matière scientifique et technique. Près de 80 % des femelles qui nidifient font deux couvées par an, à la suite de deux périodes distinctes d'activité sexuelle. Selon les spécialistes des crocodiles, ces résultats uniques au monde seraient dus à la forte température régnant à Madras et à l'alimentation régulière des pensionnaires. Autre découverte marquante due au chercheur américain Jeff Lang : les crocodiles des marais éclos en février, au début de la période de reproduction, sont pratiquement tous des femelles. Le nombre des mâles augmente ensuite, à mesure que se réchauffe le sol où sont enfouis les œufs. Puis, lorsque la température monte encore, les femelles recommencent à dominer. L'espèce semble donc programmée pour produire surtout des femelles dans les conditions extrêmes.
 </t>
@@ -673,7 +695,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de l'espèce, palustris, signifie marais en latin.
 </t>
@@ -704,7 +728,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Lesson, 1831 : Catalogue des Reptiles qui font partie d'une Collection zoologique recueille dans l'Inde continentale ou en Afrique, et apportée en France par M. Lamare-Piquot. Bulletin des Sciences Naturelles et de Géologie, Paris, vol. 25, n. 2, p. 119-123 (texte intégral).</t>
         </is>
